--- a/biology/Médecine/Marcel_Rufo/Marcel_Rufo.xlsx
+++ b/biology/Médecine/Marcel_Rufo/Marcel_Rufo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcel Rufo, né le 31 décembre 1944 à Toulon, est un pédopsychiatre, professeur d'université-praticien hospitalier (PU-PH) émérite et écrivain français, auteur de nombreux ouvrages consacrés à la prime enfance.
 </t>
@@ -511,13 +523,50 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le docteur Marcel Rufo est directeur médical de l'espace méditerranéen de l'adolescence à l'hôpital Salvator à Marseille.
 Il dirige les trois unités distinctes et dédiées aux adolescents, jeunes adultes et adultes de la Clinique des Trois Cyprès à Marseille.
 Il a exercé dans différents hôpitaux de Marseille (l'hôpital de la Timone et l'hôpital Sainte-Marguerite) ainsi qu'à l'hôpital Cochin à Paris.
-Études et titres universitaires
-Neuropsychiatre, CES 1975
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Études et titres universitaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Neuropsychiatre, CES 1975
 Pédiatre, 1975
 Chef de clinique à la Faculté de médecine de Marseille
 Psychiatrie infantile, Pr R. Soulayrol du 1er novembre 1975 au 1er novembre 1979, prolongé pour une période de trois ans à compter du 1er novembre 1979. de
@@ -527,9 +576,43 @@
 Professeur 2e classe, juin 1993
 Professeur 1re classa, août 1999
 Professeur classe exceptionnelle
-Professeur émérite, université Aix-Marseille
-Titres hospitaliers
-Interne des Hôpitaux de Marseille (concours février 1970) - Fonctions du 1er octobre 1970 au 30 octobre 1975.
+Professeur émérite, université Aix-Marseille</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Titres hospitaliers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Interne des Hôpitaux de Marseille (concours février 1970) - Fonctions du 1er octobre 1970 au 30 octobre 1975.
 Assistant des Hôpitaux du CHU de Marseille - (Service de psychiatrie infantile du Pr R. Soulayrol, CHU Sainte-Marguerite, du 1er novembre 1975 au 30 septembre 1982).
 Médecin chef des intersecteurs no 1 et no 2 de psychiatrie infanto-juvénile des Bouches-du-Rhône.
 Chef de service de pédopsychiatrie du CHU Sainte-Marguerite, Assistance publique de Marseille, depuis le 1er septembre 1995.
@@ -537,9 +620,43 @@
 Chef de service de la Maison de Solenn, Maison des Adolescents, hôpital Cochin, Assistante publique de Paris, de 2004 à 2007.
 Chef de service de l'unité d'adolescents, Espace Arthur, CHU Hôpitaux Sud, de 2007 à 2010.
 Directeur médical de l'Espace méditerranéen de l'adolescence, hôpital Salvator, Marseille, depuis 2010.
-Directeur des unités distinctes et dédiées aux adolescents, jeunes adultes et adultes de la Clinique des Trois Cyprès, Marseille, depuis le 4 janvier 2016.
-Titres scientifiques
-Membre de la Société française de psychiatrie de l'enfant et de l'adolescent, 1975
+Directeur des unités distinctes et dédiées aux adolescents, jeunes adultes et adultes de la Clinique des Trois Cyprès, Marseille, depuis le 4 janvier 2016.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Titres scientifiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Membre de la Société française de psychiatrie de l'enfant et de l'adolescent, 1975
 Membre de la Société de psychiatrie de Marseille et du Sud-Est Méditerranéen, 1972
 Membre de la Société de pédiatrie du Sud-Est, 1975
 Membre fondateur de l'Association française de psychiatrie, 1978
@@ -562,50 +679,192 @@
 Membre de la Commission pour l'image de la femme dans les médias, secrétariat d'État aux droits de la femme
 Membre de la Fondation européenne Action for teens groupant les Maisons d'adolescents
 Membre de la commission Adoption, secrétariat d'État, chargé de la Famille et de la Solidarité.
-Président de l'atelier Collectifs pédagogiques du Grenelle de l'Éducation, novembre-décembre 2020
-Titres divers
-Médecin de la Marine marchande, concours novembre 1970
+Président de l'atelier Collectifs pédagogiques du Grenelle de l'Éducation, novembre-décembre 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Titres divers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Médecin de la Marine marchande, concours novembre 1970
 Médecin PMI (Centre PMI du CHU de la Timone), mai 1977
 Expert auprès des tribunaux d'Aix-Marseille
-Chroniqueur au Midi olympique (rugby)
-Décorations
- Commandeur de la Légion d'honneur (29 décembre 2023)[1], Officier (6 mars 2013), Chevalier (30 juin 2004).
-Opinions et engagements politiques
-Pour l'élection présidentielle de 2017, il soutient Emmanuel Macron[2].
-Vie personnelle
-Il est le père d'Alice Rufo[3], conseillère pour l'Asie, la Russie, le Caucase, la Turquie, les Balkans et les réfugiés auprès du président Emmanuel Macron depuis 2017[4].
+Chroniqueur au Midi olympique (rugby)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commandeur de la Légion d'honneur (29 décembre 2023), Officier (6 mars 2013), Chevalier (30 juin 2004).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Opinions et engagements politiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour l'élection présidentielle de 2017, il soutient Emmanuel Macron.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Marcel_Rufo</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marcel_Rufo</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vie personnelle</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le père d'Alice Rufo, conseillère pour l'Asie, la Russie, le Caucase, la Turquie, les Balkans et les réfugiés auprès du président Emmanuel Macron depuis 2017.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Essais
-Bébé à l'huile, bébé au beurre, Eres, 1997.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bébé à l'huile, bébé au beurre, Eres, 1997.
 Comprendre l'ado avec Christine Schilte, Hachette Pratique, 01/2000.
 Madame Dolto avec Frédérique Authier-Roux, Eres, 2000
 Vouloir un enfant avec Christine Schilte, René Frydman, Hachette Pratique, 09/2001.
@@ -641,43 +900,79 @@
 Allô Rufo, Éditions Larousse, 2014  (ISBN 978-2035872975)
 Dictionnaire amoureux de l'enfance et de l'adolescence, Plon/Anne Carrière, 2017
 Passeurs de rugby, avec Christophe Schaeffler, Anne Carrière, 2019
-Consultations d'adolescents, collectif sous la direction de M. Rufo, Lavoisier, septembre 2020
-Vidéos d'enseignement
-Les Troubles du sommeil chez l'enfant, Conseil général des Bouches-du-Rhône, 1993
+Consultations d'adolescents, collectif sous la direction de M. Rufo, Lavoisier, septembre 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vidéos d'enseignement</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les Troubles du sommeil chez l'enfant, Conseil général des Bouches-du-Rhône, 1993
 Jouer dans l'Antiquité : la poupée romaine, film de Paul Carpita, Office de la culture et Musée de Marseille, 1993
 L'Adolescent, cet inconnu, film produit par Anthéa, 1994
 La Consultation d’adolescents, film produit par Anthéa, 1997 à l’usage des médecins généralistes</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Marcel_Rufo</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marcel_Rufo</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Rufo</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Médias</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 2005 à juin 2008, il présente une émission sur Europe 1 le jeudi de 23 heures à minuit, puis présente pendant un an, en compagnie de Charline Roux, une émission sur France 3 consacrée à la famille Le mieux c'est d'en parler. Marcel Rufo quitte alors France 3 pour rejoindre France 5, où il présente Allô Rufo[5], en compagnie d'Églantine Éméyé, une émission quotidienne diffusée à 10 h, pendant laquelle il répond aux questions des téléspectateurs à propos des enfants, petits et grands.
-Du 18 février au 28 juin 2013, il tient une chronique dans le 7/9 de France Inter dont le journaliste Erwan Desplanques de Télérama note le caractère infantilisant[6].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 2005 à juin 2008, il présente une émission sur Europe 1 le jeudi de 23 heures à minuit, puis présente pendant un an, en compagnie de Charline Roux, une émission sur France 3 consacrée à la famille Le mieux c'est d'en parler. Marcel Rufo quitte alors France 3 pour rejoindre France 5, où il présente Allô Rufo, en compagnie d'Églantine Éméyé, une émission quotidienne diffusée à 10 h, pendant laquelle il répond aux questions des téléspectateurs à propos des enfants, petits et grands.
+Du 18 février au 28 juin 2013, il tient une chronique dans le 7/9 de France Inter dont le journaliste Erwan Desplanques de Télérama note le caractère infantilisant.
 </t>
         </is>
       </c>
